--- a/biology/Médecine/Syndrome_des_ongles_jaunes/Syndrome_des_ongles_jaunes.xlsx
+++ b/biology/Médecine/Syndrome_des_ongles_jaunes/Syndrome_des_ongles_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome des ongles jaunes, est une maladie rare, se caractérisant par une coloration jaunâtre des ongles, associée à des œdèmes et à des signes pulmonaires.  
 C'est généralement une maladie de la lymphe, également appelé syndrome de Samman et White.
@@ -512,9 +524,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il atteint l'adulte ou la personne âgée, autant les femmes que les hommes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint l'adulte ou la personne âgée, autant les femmes que les hommes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inconnue. La maladie peut être isolée ou dans le cadre d'un syndrome paranéoplasique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inconnue. La maladie peut être isolée ou dans le cadre d'un syndrome paranéoplasique.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome associe ongles jaunes, lymphœdème des membres inférieurs et symptômes respiratoires. Il peut exister une sinusite[2].
-Un épanchement pleural est fréquent, souvent bilatéral, à type d'exsudat[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome associe ongles jaunes, lymphœdème des membres inférieurs et symptômes respiratoires. Il peut exister une sinusite.
+Un épanchement pleural est fréquent, souvent bilatéral, à type d'exsudat.
 </t>
         </is>
       </c>
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,9 +652,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'administration de vitamine E permet d'améliorer les symptômes[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration de vitamine E permet d'améliorer les symptômes.
 </t>
         </is>
       </c>
